--- a/results_analysis/spark_motorFailure_02_hold2_novelty2.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold2_novelty2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DA957A-0A82-4D02-8E07-32445A2675A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8382B0-98BB-45A8-A810-0E53D66E519E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,12 +157,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,12 +639,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,16 +702,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -753,6 +735,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,6 +760,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1072,19 +1093,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1174,7 @@
       <c r="J5" s="12">
         <v>0.67763157894736903</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="41">
         <v>0.94078947368421095</v>
       </c>
     </row>
@@ -1282,7 +1303,7 @@
       <c r="J9" s="23">
         <v>0.93421052631579005</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="40">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -1390,28 +1411,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="42"/>
+      <c r="D13" s="29">
+        <v>0.90131578947368396</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.94078947368421095</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.90789473684210498</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0.94078947368421095</v>
+      </c>
+      <c r="K13" s="40">
+        <v>0.93421052631579005</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="14">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.85526315789473695</v>
+      </c>
+      <c r="K14" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1421,14 +1474,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="26"/>
+      <c r="D15" s="14">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.94078947368421095</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.92763157894736903</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1436,14 +1505,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="27"/>
+      <c r="D16" s="18">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="K16" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1936,19 +2021,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2254,28 +2339,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="25"/>
+      <c r="D13" s="82">
+        <v>0.86973684210526303</v>
+      </c>
+      <c r="E13" s="83">
+        <v>0.89013157894736805</v>
+      </c>
+      <c r="F13" s="83">
+        <v>0.88223684210526299</v>
+      </c>
+      <c r="G13" s="83">
+        <v>0.87828947368421095</v>
+      </c>
+      <c r="H13" s="83">
+        <v>0.89671052631578896</v>
+      </c>
+      <c r="I13" s="83">
+        <v>0.88092105263157905</v>
+      </c>
+      <c r="J13" s="83">
+        <v>0.86052631578947403</v>
+      </c>
+      <c r="K13" s="84">
+        <v>0.888815789473684</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="26"/>
+      <c r="D14" s="85">
+        <v>0.88026315789473697</v>
+      </c>
+      <c r="E14" s="86">
+        <v>0.99407894736842095</v>
+      </c>
+      <c r="F14" s="86">
+        <v>0.879605263157895</v>
+      </c>
+      <c r="G14" s="86">
+        <v>0.99934210526315803</v>
+      </c>
+      <c r="H14" s="86">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="I14" s="86">
+        <v>0.91710526315789498</v>
+      </c>
+      <c r="J14" s="86">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="87">
+        <v>0.94802631578947405</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2285,14 +2402,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="26"/>
+      <c r="D15" s="85">
+        <v>0.89736842105263204</v>
+      </c>
+      <c r="E15" s="86">
+        <v>0.88355263157894803</v>
+      </c>
+      <c r="F15" s="86">
+        <v>0.884210526315789</v>
+      </c>
+      <c r="G15" s="86">
+        <v>0.88618421052631602</v>
+      </c>
+      <c r="H15" s="86">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="I15" s="86">
+        <v>0.888815789473684</v>
+      </c>
+      <c r="J15" s="86">
+        <v>0.85592105263157903</v>
+      </c>
+      <c r="K15" s="87">
+        <v>0.88552631578947405</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -2300,14 +2433,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="27"/>
+      <c r="D16" s="88">
+        <v>0.87631578947368405</v>
+      </c>
+      <c r="E16" s="89">
+        <v>0.99802631578947398</v>
+      </c>
+      <c r="F16" s="89">
+        <v>0.89210526315789496</v>
+      </c>
+      <c r="G16" s="89">
+        <v>0.99276315789473701</v>
+      </c>
+      <c r="H16" s="89">
+        <v>0.89013157894736905</v>
+      </c>
+      <c r="I16" s="89">
+        <v>0.92960526315789505</v>
+      </c>
+      <c r="J16" s="89">
+        <v>0.78421052631579002</v>
+      </c>
+      <c r="K16" s="90">
+        <v>0.95855263157894699</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2800,19 +2949,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3118,28 +3267,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="D13" s="86">
+        <v>0.875</v>
+      </c>
+      <c r="E13" s="86">
+        <v>0.90131578947368396</v>
+      </c>
+      <c r="F13" s="86">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="G13" s="86">
+        <v>0.89144736842105299</v>
+      </c>
+      <c r="H13" s="86">
+        <v>0.89802631578947401</v>
+      </c>
+      <c r="I13" s="86">
+        <v>0.875</v>
+      </c>
+      <c r="J13" s="86">
+        <v>0.85855263157894701</v>
+      </c>
+      <c r="K13" s="86">
+        <v>0.90131578947368396</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="D14" s="86">
+        <v>0.88486842105263197</v>
+      </c>
+      <c r="E14" s="86">
+        <v>1</v>
+      </c>
+      <c r="F14" s="86">
+        <v>0.89144736842105299</v>
+      </c>
+      <c r="G14" s="86">
+        <v>1</v>
+      </c>
+      <c r="H14" s="86">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="I14" s="86">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="J14" s="86">
+        <v>0.80592105263157898</v>
+      </c>
+      <c r="K14" s="86">
+        <v>0.96052631578947401</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3149,14 +3330,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="86">
+        <v>0.90460526315789502</v>
+      </c>
+      <c r="E15" s="86">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="F15" s="86">
+        <v>0.88486842105263197</v>
+      </c>
+      <c r="G15" s="86">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="H15" s="86">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="I15" s="86">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="J15" s="86">
+        <v>0.85526315789473695</v>
+      </c>
+      <c r="K15" s="86">
+        <v>0.88486842105263197</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3164,14 +3361,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="D16" s="86">
+        <v>0.88486842105263197</v>
+      </c>
+      <c r="E16" s="86">
+        <v>1</v>
+      </c>
+      <c r="F16" s="86">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="G16" s="86">
+        <v>0.99671052631579005</v>
+      </c>
+      <c r="H16" s="86">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="I16" s="86">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="J16" s="86">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="K16" s="86">
+        <v>0.96710526315789502</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3506,19 +3719,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3824,28 +4037,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="D13" s="81">
+        <v>81</v>
+      </c>
+      <c r="E13" s="81">
+        <v>75</v>
+      </c>
+      <c r="F13" s="81">
+        <v>68</v>
+      </c>
+      <c r="G13" s="81">
+        <v>67</v>
+      </c>
+      <c r="H13" s="81">
+        <v>73</v>
+      </c>
+      <c r="I13" s="81">
+        <v>76</v>
+      </c>
+      <c r="J13" s="81">
+        <v>74</v>
+      </c>
+      <c r="K13" s="81">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="D14" s="81">
+        <v>69</v>
+      </c>
+      <c r="E14" s="81">
+        <v>44</v>
+      </c>
+      <c r="F14" s="81">
+        <v>74</v>
+      </c>
+      <c r="G14" s="81">
+        <v>45</v>
+      </c>
+      <c r="H14" s="81">
+        <v>72</v>
+      </c>
+      <c r="I14" s="81">
+        <v>74</v>
+      </c>
+      <c r="J14" s="81">
+        <v>57</v>
+      </c>
+      <c r="K14" s="81">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3855,14 +4100,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="D15" s="81">
+        <v>82</v>
+      </c>
+      <c r="E15" s="81">
+        <v>67</v>
+      </c>
+      <c r="F15" s="81">
+        <v>72</v>
+      </c>
+      <c r="G15" s="81">
+        <v>78</v>
+      </c>
+      <c r="H15" s="81">
+        <v>63</v>
+      </c>
+      <c r="I15" s="81">
+        <v>71</v>
+      </c>
+      <c r="J15" s="81">
+        <v>76</v>
+      </c>
+      <c r="K15" s="81">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3870,14 +4131,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="D16" s="81">
+        <v>76</v>
+      </c>
+      <c r="E16" s="81">
+        <v>44</v>
+      </c>
+      <c r="F16" s="81">
+        <v>79</v>
+      </c>
+      <c r="G16" s="81">
+        <v>45</v>
+      </c>
+      <c r="H16" s="81">
+        <v>68</v>
+      </c>
+      <c r="I16" s="81">
+        <v>71</v>
+      </c>
+      <c r="J16" s="81">
+        <v>64</v>
+      </c>
+      <c r="K16" s="81">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4212,19 +4489,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4530,28 +4807,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="D13" s="81">
+        <v>65</v>
+      </c>
+      <c r="E13" s="81">
+        <v>70.5</v>
+      </c>
+      <c r="F13" s="81">
+        <v>67.2</v>
+      </c>
+      <c r="G13" s="81">
+        <v>66.7</v>
+      </c>
+      <c r="H13" s="81">
+        <v>70</v>
+      </c>
+      <c r="I13" s="81">
+        <v>71.7</v>
+      </c>
+      <c r="J13" s="81">
+        <v>59.7</v>
+      </c>
+      <c r="K13" s="81">
+        <v>67.7</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="D14" s="81">
+        <v>68.5</v>
+      </c>
+      <c r="E14" s="81">
+        <v>44.9</v>
+      </c>
+      <c r="F14" s="81">
+        <v>68.3</v>
+      </c>
+      <c r="G14" s="81">
+        <v>45.9</v>
+      </c>
+      <c r="H14" s="81">
+        <v>68.3</v>
+      </c>
+      <c r="I14" s="81">
+        <v>64.8</v>
+      </c>
+      <c r="J14" s="81">
+        <v>56.9</v>
+      </c>
+      <c r="K14" s="81">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4561,14 +4870,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="D15" s="81">
+        <v>68.2</v>
+      </c>
+      <c r="E15" s="81">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F15" s="81">
+        <v>62.3</v>
+      </c>
+      <c r="G15" s="81">
+        <v>68.2</v>
+      </c>
+      <c r="H15" s="81">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="I15" s="81">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="J15" s="81">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="K15" s="81">
+        <v>64.400000000000006</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4576,14 +4901,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="D16" s="81">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E16" s="81">
+        <v>44.8</v>
+      </c>
+      <c r="F16" s="81">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G16" s="81">
+        <v>44.9</v>
+      </c>
+      <c r="H16" s="81">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="I16" s="81">
+        <v>67.5</v>
+      </c>
+      <c r="J16" s="81">
+        <v>48.2</v>
+      </c>
+      <c r="K16" s="81">
+        <v>55.4</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4900,7 +5241,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:K16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4918,19 +5259,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5236,28 +5577,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="D13" s="81">
+        <v>1</v>
+      </c>
+      <c r="E13" s="81">
+        <v>1</v>
+      </c>
+      <c r="F13" s="81">
+        <v>1</v>
+      </c>
+      <c r="G13" s="81">
+        <v>1</v>
+      </c>
+      <c r="H13" s="81">
+        <v>1</v>
+      </c>
+      <c r="I13" s="81">
+        <v>1</v>
+      </c>
+      <c r="J13" s="81">
+        <v>1</v>
+      </c>
+      <c r="K13" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="D14" s="81">
+        <v>2</v>
+      </c>
+      <c r="E14" s="81">
+        <v>3</v>
+      </c>
+      <c r="F14" s="81">
+        <v>2</v>
+      </c>
+      <c r="G14" s="81">
+        <v>3</v>
+      </c>
+      <c r="H14" s="81">
+        <v>9</v>
+      </c>
+      <c r="I14" s="81">
+        <v>10</v>
+      </c>
+      <c r="J14" s="81">
+        <v>2</v>
+      </c>
+      <c r="K14" s="81">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -5267,14 +5640,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="D15" s="81">
+        <v>1</v>
+      </c>
+      <c r="E15" s="81">
+        <v>1</v>
+      </c>
+      <c r="F15" s="81">
+        <v>1</v>
+      </c>
+      <c r="G15" s="81">
+        <v>1</v>
+      </c>
+      <c r="H15" s="81">
+        <v>1</v>
+      </c>
+      <c r="I15" s="81">
+        <v>1</v>
+      </c>
+      <c r="J15" s="81">
+        <v>1</v>
+      </c>
+      <c r="K15" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5282,14 +5671,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="D16" s="81">
+        <v>2</v>
+      </c>
+      <c r="E16" s="81">
+        <v>3</v>
+      </c>
+      <c r="F16" s="81">
+        <v>2</v>
+      </c>
+      <c r="G16" s="81">
+        <v>3</v>
+      </c>
+      <c r="H16" s="81">
+        <v>6</v>
+      </c>
+      <c r="I16" s="81">
+        <v>10</v>
+      </c>
+      <c r="J16" s="81">
+        <v>2</v>
+      </c>
+      <c r="K16" s="81">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5624,19 +6029,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5942,28 +6347,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="D13" s="81">
+        <v>1</v>
+      </c>
+      <c r="E13" s="81">
+        <v>1</v>
+      </c>
+      <c r="F13" s="81">
+        <v>1</v>
+      </c>
+      <c r="G13" s="81">
+        <v>1</v>
+      </c>
+      <c r="H13" s="81">
+        <v>1</v>
+      </c>
+      <c r="I13" s="81">
+        <v>1</v>
+      </c>
+      <c r="J13" s="81">
+        <v>1</v>
+      </c>
+      <c r="K13" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="D14" s="81">
+        <v>2.1</v>
+      </c>
+      <c r="E14" s="81">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F14" s="81">
+        <v>2.6</v>
+      </c>
+      <c r="G14" s="81">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H14" s="81">
+        <v>6.5</v>
+      </c>
+      <c r="I14" s="81">
+        <v>7.6</v>
+      </c>
+      <c r="J14" s="81">
+        <v>4.2</v>
+      </c>
+      <c r="K14" s="81">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -5973,14 +6410,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="D15" s="81">
+        <v>1</v>
+      </c>
+      <c r="E15" s="81">
+        <v>1</v>
+      </c>
+      <c r="F15" s="81">
+        <v>1</v>
+      </c>
+      <c r="G15" s="81">
+        <v>1</v>
+      </c>
+      <c r="H15" s="81">
+        <v>1</v>
+      </c>
+      <c r="I15" s="81">
+        <v>1</v>
+      </c>
+      <c r="J15" s="81">
+        <v>1</v>
+      </c>
+      <c r="K15" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5988,14 +6441,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="D16" s="81">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E16" s="81">
+        <v>4</v>
+      </c>
+      <c r="F16" s="81">
+        <v>2.6</v>
+      </c>
+      <c r="G16" s="81">
+        <v>3.8</v>
+      </c>
+      <c r="H16" s="81">
+        <v>6.4</v>
+      </c>
+      <c r="I16" s="81">
+        <v>8.4</v>
+      </c>
+      <c r="J16" s="81">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K16" s="81">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6320,38 +6789,39 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6361,29 +6831,29 @@
       <c r="E3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="36" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="78" t="s">
+      <c r="L3" s="78"/>
+      <c r="M3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="78" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="80"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -6392,46 +6862,46 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6442,82 +6912,82 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
-        <v>1</v>
-      </c>
-      <c r="D5" s="74">
+      <c r="C5" s="43">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70">
         <v>6.25E-2</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="59">
         <v>0.5</v>
       </c>
-      <c r="F5" s="62">
-        <v>1</v>
-      </c>
-      <c r="G5" s="62">
-        <v>1</v>
-      </c>
-      <c r="H5" s="62">
+      <c r="F5" s="59">
+        <v>1</v>
+      </c>
+      <c r="G5" s="59">
+        <v>1</v>
+      </c>
+      <c r="H5" s="59">
         <v>3</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="60">
         <v>128</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="59">
         <v>2</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="59">
         <v>3</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="59">
         <v>4</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="55">
         <v>3.125E-2</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="58">
         <v>0.05</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="59">
         <v>2</v>
       </c>
-      <c r="P5" s="63">
+      <c r="P5" s="74">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="72">
         <v>4</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="38">
         <v>2</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="52">
         <v>0.25</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="38">
         <v>3</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="52">
         <v>0.25</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="K6" s="38">
         <v>2.6</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N6" s="15">
@@ -6535,10 +7005,10 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="46">
-        <v>1</v>
-      </c>
-      <c r="D7" s="65">
+      <c r="C7" s="44">
+        <v>1</v>
+      </c>
+      <c r="D7" s="72">
         <v>8</v>
       </c>
       <c r="E7" s="38">
@@ -6547,71 +7017,71 @@
       <c r="F7" s="38">
         <v>0.5</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="38">
         <v>8</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="38">
         <v>3</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="52">
         <v>0.25</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="54">
         <v>3.125E-2</v>
       </c>
       <c r="K7" s="38">
         <v>0.4</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="51">
         <v>16</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N7" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="72">
         <v>2</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="54">
         <v>1.953125E-3</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="38">
         <v>2</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="38">
         <v>4</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="38">
         <v>2</v>
       </c>
       <c r="I8" s="15">
         <v>0.125</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="38">
         <v>2</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="51">
         <v>32</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="54">
         <v>1.5625E-2</v>
       </c>
       <c r="N8" s="15">
@@ -6620,7 +7090,7 @@
       <c r="O8" s="38">
         <v>0.5</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <v>0.25</v>
       </c>
     </row>
@@ -6631,91 +7101,91 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="45">
-        <v>1</v>
-      </c>
-      <c r="D9" s="64">
+      <c r="C9" s="43">
+        <v>1</v>
+      </c>
+      <c r="D9" s="61">
         <v>6.25E-2</v>
       </c>
       <c r="E9" s="38">
         <v>0.5</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="38">
         <v>4</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="H9" s="53">
-        <v>1</v>
-      </c>
-      <c r="I9" s="53">
+      <c r="H9" s="38">
+        <v>1</v>
+      </c>
+      <c r="I9" s="38">
         <v>8</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="54">
         <v>3.125E-2</v>
       </c>
       <c r="K9" s="38">
         <v>2.4</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="51">
         <v>1024</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="54">
         <v>7.8125E-3</v>
       </c>
       <c r="N9" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P9" s="67">
+      <c r="P9" s="63">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="61">
         <v>6.25E-2</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="52">
         <v>2</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="51">
         <v>2</v>
       </c>
       <c r="H10" s="38">
         <v>0.6</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="K10" s="38">
         <v>2.8</v>
       </c>
-      <c r="L10" s="53">
-        <v>1</v>
-      </c>
-      <c r="M10" s="56">
+      <c r="L10" s="38">
+        <v>1</v>
+      </c>
+      <c r="M10" s="54">
         <v>3.125E-2</v>
       </c>
       <c r="N10" s="38">
         <v>0.1</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="38">
         <v>8</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <v>0.25</v>
       </c>
     </row>
@@ -6724,16 +7194,16 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="46">
-        <v>1</v>
-      </c>
-      <c r="D11" s="65">
+      <c r="C11" s="44">
+        <v>1</v>
+      </c>
+      <c r="D11" s="72">
         <v>1</v>
       </c>
       <c r="E11" s="38">
         <v>0.5</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="G11" s="15">
@@ -6742,41 +7212,41 @@
       <c r="H11" s="38">
         <v>0.6</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="51">
         <v>32</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="38">
         <v>2</v>
       </c>
       <c r="K11" s="38">
         <v>2.6</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="51">
         <v>256</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="N11" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P11" s="58">
+      <c r="P11" s="56">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="72">
         <v>4</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="F12" s="15">
@@ -6788,28 +7258,28 @@
       <c r="H12" s="38">
         <v>0.8</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="K12" s="53">
-        <v>1</v>
-      </c>
-      <c r="L12" s="53">
+      <c r="K12" s="38">
+        <v>1</v>
+      </c>
+      <c r="L12" s="51">
         <v>256</v>
       </c>
-      <c r="M12" s="56">
+      <c r="M12" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N12" s="15">
         <v>0.01</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="P12" s="67">
+      <c r="P12" s="63">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -6820,83 +7290,187 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="45">
-        <v>1</v>
-      </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="69"/>
+      <c r="C13" s="43">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E13" s="38">
+        <v>2</v>
+      </c>
+      <c r="F13" s="38">
+        <v>2</v>
+      </c>
+      <c r="G13" s="38">
+        <v>8</v>
+      </c>
+      <c r="H13" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="I13" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="38">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K13" s="38">
+        <v>3</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M13" s="53">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N13" s="15">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="O13" s="54">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P13" s="26">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="26"/>
+      <c r="D14" s="61">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E14" s="53">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F14" s="51">
+        <v>64</v>
+      </c>
+      <c r="G14" s="53">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H14" s="38">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="J14" s="53">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K14" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="L14" s="52">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N14" s="53">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="O14" s="38">
+        <v>8</v>
+      </c>
+      <c r="P14" s="64">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="69"/>
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="D15" s="62">
+        <v>1024</v>
+      </c>
+      <c r="E15" s="38">
+        <v>8</v>
+      </c>
+      <c r="F15" s="52">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G15" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="52">
+        <v>2.4</v>
+      </c>
+      <c r="I15" s="38">
+        <v>2</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1</v>
+      </c>
+      <c r="K15" s="38">
+        <v>3</v>
+      </c>
+      <c r="L15" s="38">
+        <v>4</v>
+      </c>
+      <c r="M15" s="53">
+        <v>0.125</v>
+      </c>
+      <c r="N15" s="53">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="O15" s="51">
+        <v>1024</v>
+      </c>
+      <c r="P15" s="65">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="67"/>
+      <c r="D16" s="72">
+        <v>16</v>
+      </c>
+      <c r="E16" s="15">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="F16" s="53">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G16" s="52">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="J16" s="54">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K16" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="53">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M16" s="54">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N16" s="53">
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="O16" s="38">
+        <v>8</v>
+      </c>
+      <c r="P16" s="26">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6905,88 +7479,88 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="46">
-        <v>1</v>
-      </c>
-      <c r="D17" s="64">
+      <c r="C17" s="44">
+        <v>1</v>
+      </c>
+      <c r="D17" s="61">
         <v>6.25E-2</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="38">
         <v>4</v>
       </c>
       <c r="F17" s="15">
         <v>0.125</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="38">
         <v>4</v>
       </c>
       <c r="H17" s="38">
         <v>2.4</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="51">
         <v>32</v>
       </c>
       <c r="J17" s="38">
         <v>0.5</v>
       </c>
-      <c r="K17" s="53">
-        <v>1</v>
-      </c>
-      <c r="L17" s="53">
+      <c r="K17" s="38">
+        <v>1</v>
+      </c>
+      <c r="L17" s="51">
         <v>512</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N17" s="38">
         <v>0.1</v>
       </c>
-      <c r="O17" s="53">
-        <v>1</v>
-      </c>
-      <c r="P17" s="69">
+      <c r="O17" s="38">
+        <v>1</v>
+      </c>
+      <c r="P17" s="65">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="61">
         <v>6.25E-2</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="38">
         <v>2</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="38">
         <v>2</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="38">
         <v>3</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="38">
         <v>8</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="38">
         <v>2</v>
       </c>
-      <c r="L18" s="53">
+      <c r="L18" s="51">
         <v>1024</v>
       </c>
-      <c r="M18" s="56">
+      <c r="M18" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N18" s="38">
         <v>0.1</v>
       </c>
-      <c r="O18" s="53">
+      <c r="O18" s="38">
         <v>4</v>
       </c>
       <c r="P18" s="26">
@@ -6998,19 +7572,19 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="46">
-        <v>1</v>
-      </c>
-      <c r="D19" s="64">
+      <c r="C19" s="44">
+        <v>1</v>
+      </c>
+      <c r="D19" s="61">
         <v>6.25E-2</v>
       </c>
       <c r="E19" s="38">
         <v>0.5</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="38">
         <v>2</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="38">
         <v>8</v>
       </c>
       <c r="H19" s="38">
@@ -7019,71 +7593,71 @@
       <c r="I19" s="15">
         <v>0.125</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="K19" s="38">
         <v>0.4</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="51">
         <v>256</v>
       </c>
-      <c r="M19" s="56">
+      <c r="M19" s="54">
         <v>3.125E-2</v>
       </c>
       <c r="N19" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O19" s="53">
-        <v>1</v>
-      </c>
-      <c r="P19" s="68">
+      <c r="O19" s="38">
+        <v>1</v>
+      </c>
+      <c r="P19" s="64">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="73">
         <v>8</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="57">
         <v>1.5625E-2</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="68">
         <v>4</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="67">
         <v>0.25</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="68">
         <v>2.8</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="57">
         <v>3.125E-2</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="57">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="68">
         <v>0.4</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="69">
         <v>256</v>
       </c>
-      <c r="M20" s="59">
+      <c r="M20" s="57">
         <v>3.125E-2</v>
       </c>
       <c r="N20" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O20" s="70">
+      <c r="O20" s="66">
         <v>6.25E-2</v>
       </c>
-      <c r="P20" s="75">
+      <c r="P20" s="71">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -7365,61 +7939,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="78" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="78" t="s">
+      <c r="G3" s="78"/>
+      <c r="H3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="78" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="78" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="79"/>
-      <c r="N3" s="78" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="79"/>
-      <c r="P3" s="78" t="s">
+      <c r="O3" s="78"/>
+      <c r="P3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="78" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="80"/>
+      <c r="S3" s="79"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -7431,52 +8005,52 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7490,52 +8064,52 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="50">
         <v>1.5625E-2</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="50">
         <v>7.8125E-3</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="49">
         <v>1024.001</v>
       </c>
       <c r="J5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="49">
         <v>1024.001</v>
       </c>
       <c r="L5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="49">
         <v>1024.001</v>
       </c>
       <c r="N5" s="12">
         <v>-0.125</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="49">
         <v>1024.001</v>
       </c>
     </row>
@@ -7544,52 +8118,52 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="51">
         <v>1024.001</v>
       </c>
       <c r="F6" s="38">
         <v>1</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="52">
         <v>0.25</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="51">
         <v>1024.001</v>
       </c>
       <c r="J6" s="15">
         <v>0.125</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="52">
         <v>0.25</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="51">
         <v>-8</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="51">
         <v>1024.001</v>
       </c>
       <c r="R6" s="38">
         <v>1</v>
       </c>
-      <c r="S6" s="53">
+      <c r="S6" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -7601,52 +8175,52 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="52">
         <v>0.25</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="51">
         <v>1024.001</v>
       </c>
       <c r="L7" s="38">
         <v>1</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="53">
         <v>-1.5625E-2</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="52">
         <v>0.25</v>
       </c>
-      <c r="S7" s="53">
+      <c r="S7" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -7656,52 +8230,52 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <v>0.25</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <v>64</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="51">
         <v>1024.001</v>
       </c>
       <c r="J8" s="38">
         <v>0.5</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="51">
         <v>1024.001</v>
       </c>
       <c r="L8" s="38">
         <v>0.5</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="51">
         <v>1024.001</v>
       </c>
       <c r="N8" s="15">
         <v>-0.125</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="51">
         <v>1024.001</v>
       </c>
       <c r="R8" s="38">
         <v>1</v>
       </c>
-      <c r="S8" s="53">
+      <c r="S8" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -7715,7 +8289,7 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="52">
         <v>0.99</v>
       </c>
       <c r="E9" s="15">
@@ -7727,13 +8301,13 @@
       <c r="G9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="52">
         <v>0.99</v>
       </c>
       <c r="I9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="52">
         <v>0.99</v>
       </c>
       <c r="K9" s="15">
@@ -7751,7 +8325,7 @@
       <c r="O9" s="38">
         <v>1</v>
       </c>
-      <c r="P9" s="54">
+      <c r="P9" s="52">
         <v>0.99</v>
       </c>
       <c r="Q9" s="15">
@@ -7769,7 +8343,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="52">
         <v>0.99</v>
       </c>
       <c r="E10" s="15">
@@ -7781,7 +8355,7 @@
       <c r="G10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="52">
         <v>0.99</v>
       </c>
       <c r="I10" s="15">
@@ -7793,25 +8367,25 @@
       <c r="K10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="52">
         <v>0.01</v>
       </c>
       <c r="M10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="52">
         <v>0.99</v>
       </c>
       <c r="O10" s="38">
         <v>1</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="52">
         <v>0.99</v>
       </c>
       <c r="Q10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="52">
         <v>0.01</v>
       </c>
       <c r="S10" s="15">
@@ -7826,31 +8400,31 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="52">
         <v>0.9</v>
       </c>
       <c r="E11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="52">
         <v>0.9</v>
       </c>
       <c r="G11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="52">
         <v>0.99</v>
       </c>
       <c r="I11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="52">
         <v>0.99</v>
       </c>
       <c r="K11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="52">
         <v>0.99</v>
       </c>
       <c r="M11" s="15">
@@ -7862,7 +8436,7 @@
       <c r="O11" s="38">
         <v>1</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="52">
         <v>0.99</v>
       </c>
       <c r="Q11" s="15">
@@ -7881,19 +8455,19 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="52">
         <v>0.99</v>
       </c>
       <c r="E12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="52">
         <v>0.01</v>
       </c>
       <c r="G12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="52">
         <v>0.99</v>
       </c>
       <c r="I12" s="15">
@@ -7905,7 +8479,7 @@
       <c r="K12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="52">
         <v>0.01</v>
       </c>
       <c r="M12" s="15">
@@ -7917,7 +8491,7 @@
       <c r="O12" s="38">
         <v>1</v>
       </c>
-      <c r="P12" s="54">
+      <c r="P12" s="52">
         <v>0.99</v>
       </c>
       <c r="Q12" s="15">
@@ -7943,16 +8517,16 @@
       <c r="D13" s="15"/>
       <c r="E13" s="38"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="55"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="15"/>
       <c r="I13" s="38"/>
       <c r="J13" s="15"/>
       <c r="K13" s="38"/>
       <c r="L13" s="15"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="54"/>
+      <c r="N13" s="52"/>
       <c r="O13" s="38"/>
-      <c r="P13" s="55"/>
+      <c r="P13" s="53"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="15"/>
       <c r="S13" s="38"/>
@@ -7962,20 +8536,20 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="53"/>
+      <c r="N14" s="51"/>
       <c r="O14" s="38"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="55"/>
+      <c r="Q14" s="53"/>
       <c r="R14" s="15"/>
       <c r="S14" s="38"/>
     </row>
@@ -7987,21 +8561,21 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="54"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="53"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="53"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="15"/>
       <c r="M15" s="38"/>
-      <c r="N15" s="54"/>
+      <c r="N15" s="52"/>
       <c r="O15" s="38"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="53"/>
       <c r="S15" s="38"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8010,17 +8584,17 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="54"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="54"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="38"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="53"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="15"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="54"/>
+      <c r="N16" s="52"/>
       <c r="O16" s="38"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
@@ -8037,28 +8611,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="51">
         <v>16</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="51">
         <v>1024.0009765625</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="51">
         <v>16</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="51">
         <v>256.0009765625</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="53">
         <v>6.34765625E-2</v>
       </c>
       <c r="L17" s="15">
@@ -8067,22 +8641,22 @@
       <c r="M17" s="38">
         <v>0.5009765625</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="51">
         <v>-128</v>
       </c>
       <c r="O17" s="15">
         <v>-9.765625E-4</v>
       </c>
-      <c r="P17" s="55">
+      <c r="P17" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="Q17" s="51">
         <v>8.0009765625</v>
       </c>
-      <c r="R17" s="53">
+      <c r="R17" s="51">
         <v>8</v>
       </c>
-      <c r="S17" s="53">
+      <c r="S17" s="51">
         <v>128.0009765625</v>
       </c>
     </row>
@@ -8091,37 +8665,37 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="51">
         <v>16</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="51">
         <v>128.0009765625</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="53">
         <v>1.5625E-2</v>
       </c>
       <c r="G18" s="38">
         <v>0.5009765625</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="51">
         <v>2.0009765625</v>
       </c>
-      <c r="J18" s="53">
-        <v>1</v>
-      </c>
-      <c r="K18" s="53">
+      <c r="J18" s="51">
+        <v>1</v>
+      </c>
+      <c r="K18" s="51">
         <v>256.0009765625</v>
       </c>
-      <c r="L18" s="55">
+      <c r="L18" s="53">
         <v>1.953125E-3</v>
       </c>
       <c r="M18" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="N18" s="55">
+      <c r="N18" s="53">
         <v>-64</v>
       </c>
       <c r="O18" s="15">
@@ -8130,13 +8704,13 @@
       <c r="P18" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="Q18" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="S18" s="53">
+      <c r="S18" s="51">
         <v>16.0009765625</v>
       </c>
     </row>
@@ -8148,49 +8722,49 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="52">
         <v>0.25</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="53">
         <v>3.22265625E-2</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="L19" s="55">
+      <c r="L19" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="51">
         <v>16.0009765625</v>
       </c>
-      <c r="N19" s="54">
+      <c r="N19" s="52">
         <v>-0.25</v>
       </c>
-      <c r="O19" s="53">
+      <c r="O19" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="P19" s="55">
+      <c r="P19" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="51">
         <v>8.0009765625</v>
       </c>
-      <c r="R19" s="55">
+      <c r="R19" s="53">
         <v>3.125E-2</v>
       </c>
       <c r="S19" s="15">
@@ -8203,40 +8777,40 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="53">
         <v>4.8828125E-3</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="53">
         <v>7.8125E-3</v>
       </c>
       <c r="I20" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="53">
         <v>6.34765625E-2</v>
       </c>
-      <c r="L20" s="55">
+      <c r="L20" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="51">
         <v>1.0009765625</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="51">
         <v>4</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="51">
         <v>8.0009765625</v>
       </c>
       <c r="P20" s="15">
@@ -8245,7 +8819,7 @@
       <c r="Q20" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="R20" s="55">
+      <c r="R20" s="53">
         <v>1.953125E-3</v>
       </c>
       <c r="S20" s="15">

--- a/results_analysis/spark_motorFailure_02_hold2_novelty2.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold2_novelty2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8382B0-98BB-45A8-A810-0E53D66E519E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D99B29A-C7CB-4550-8315-762971DD32C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,9 +598,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -762,34 +759,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1063,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,19 +1081,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1141,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>0.76973684210526305</v>
       </c>
       <c r="E5" s="12">
@@ -1174,7 +1162,7 @@
       <c r="J5" s="12">
         <v>0.67763157894736903</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="40">
         <v>0.94078947368421095</v>
       </c>
     </row>
@@ -1282,7 +1270,7 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>0.93421052631579005</v>
       </c>
       <c r="E9" s="23">
@@ -1303,7 +1291,7 @@
       <c r="J9" s="23">
         <v>0.93421052631579005</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="39">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -1411,10 +1399,10 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>0.90131578947368396</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="24">
         <v>0.94078947368421095</v>
       </c>
       <c r="F13" s="23">
@@ -1426,13 +1414,13 @@
       <c r="H13" s="23">
         <v>0.92763157894736903</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="24">
         <v>0.93421052631579005</v>
       </c>
       <c r="J13" s="23">
         <v>0.94078947368421095</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="25">
         <v>0.93421052631579005</v>
       </c>
     </row>
@@ -1444,13 +1432,13 @@
       <c r="D14" s="14">
         <v>0.91447368421052599</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="16">
         <v>1</v>
       </c>
       <c r="F14" s="15">
         <v>0.91447368421052599</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="16">
         <v>1</v>
       </c>
       <c r="H14" s="15">
@@ -1462,7 +1450,7 @@
       <c r="J14" s="15">
         <v>0.85526315789473695</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1483,13 +1471,13 @@
       <c r="F15" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="16">
         <v>0.96052631578947401</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="16">
         <v>0.94078947368421095</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="16">
         <v>0.93421052631579005</v>
       </c>
       <c r="J15" s="15">
@@ -1508,13 +1496,13 @@
       <c r="D16" s="18">
         <v>0.91447368421052599</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="20">
         <v>1</v>
       </c>
       <c r="F16" s="19">
         <v>0.92105263157894701</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="20">
         <v>1</v>
       </c>
       <c r="H16" s="19">
@@ -1526,7 +1514,7 @@
       <c r="J16" s="19">
         <v>0.89473684210526305</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1660,165 +1648,165 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
@@ -2003,7 +1991,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,19 +2009,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2081,7 +2069,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>0.69605263157894703</v>
       </c>
       <c r="E5" s="12">
@@ -2102,7 +2090,7 @@
       <c r="J5" s="12">
         <v>0.61184210526315796</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="30">
         <v>0.78092105263157896</v>
       </c>
     </row>
@@ -2165,7 +2153,7 @@
       <c r="J7" s="15">
         <v>0.67960526315789505</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <v>0.81118421052631595</v>
       </c>
     </row>
@@ -2187,7 +2175,7 @@
       <c r="G8" s="20">
         <v>0.88815789473684204</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="32">
         <v>0.79671052631578898</v>
       </c>
       <c r="I8" s="19">
@@ -2210,7 +2198,7 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>0.77039473684210502</v>
       </c>
       <c r="E9" s="23">
@@ -2339,28 +2327,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="28">
         <v>0.86973684210526303</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="24">
         <v>0.89013157894736805</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="24">
         <v>0.88223684210526299</v>
       </c>
-      <c r="G13" s="83">
+      <c r="G13" s="23">
         <v>0.87828947368421095</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="23">
         <v>0.89671052631578896</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="23">
         <v>0.88092105263157905</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="23">
         <v>0.86052631578947403</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="25">
         <v>0.888815789473684</v>
       </c>
     </row>
@@ -2369,28 +2357,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="14">
         <v>0.88026315789473697</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="16">
         <v>0.99407894736842095</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="15">
         <v>0.879605263157895</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="16">
         <v>0.99934210526315803</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="15">
         <v>0.91249999999999998</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="15">
         <v>0.91710526315789498</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="15">
         <v>0.8</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="17">
         <v>0.94802631578947405</v>
       </c>
     </row>
@@ -2402,28 +2390,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="36">
         <v>0.89736842105263204</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="15">
         <v>0.88355263157894803</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="15">
         <v>0.884210526315789</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="15">
         <v>0.88618421052631602</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="16">
         <v>0.88815789473684204</v>
       </c>
-      <c r="I15" s="86">
+      <c r="I15" s="16">
         <v>0.888815789473684</v>
       </c>
-      <c r="J15" s="86">
+      <c r="J15" s="15">
         <v>0.85592105263157903</v>
       </c>
-      <c r="K15" s="87">
+      <c r="K15" s="26">
         <v>0.88552631578947405</v>
       </c>
     </row>
@@ -2433,28 +2421,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="18">
         <v>0.87631578947368405</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="20">
         <v>0.99802631578947398</v>
       </c>
-      <c r="F16" s="89">
+      <c r="F16" s="19">
         <v>0.89210526315789496</v>
       </c>
-      <c r="G16" s="89">
+      <c r="G16" s="20">
         <v>0.99276315789473701</v>
       </c>
-      <c r="H16" s="89">
+      <c r="H16" s="19">
         <v>0.89013157894736905</v>
       </c>
-      <c r="I16" s="89">
+      <c r="I16" s="19">
         <v>0.92960526315789505</v>
       </c>
-      <c r="J16" s="89">
+      <c r="J16" s="19">
         <v>0.78421052631579002</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="21">
         <v>0.95855263157894699</v>
       </c>
     </row>
@@ -2468,7 +2456,7 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <v>0.91644736842105301</v>
       </c>
       <c r="E17" s="24">
@@ -2498,7 +2486,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>0.91052631578947396</v>
       </c>
       <c r="E18" s="15">
@@ -2519,7 +2507,7 @@
       <c r="J18" s="15">
         <v>0.67434210526315796</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="31">
         <v>0.88815789473684204</v>
       </c>
     </row>
@@ -2588,165 +2576,165 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
@@ -2931,7 +2919,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K16" activeCellId="2" sqref="E16 G16 K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,19 +2937,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3267,28 +3255,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="15">
         <v>0.875</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="16">
         <v>0.90131578947368396</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="15">
         <v>0.89144736842105299</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="16">
         <v>0.89802631578947401</v>
       </c>
-      <c r="I13" s="86">
+      <c r="I13" s="15">
         <v>0.875</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="15">
         <v>0.85855263157894701</v>
       </c>
-      <c r="K13" s="86">
+      <c r="K13" s="16">
         <v>0.90131578947368396</v>
       </c>
     </row>
@@ -3297,28 +3285,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="15">
         <v>0.88486842105263197</v>
       </c>
-      <c r="E14" s="86">
-        <v>1</v>
-      </c>
-      <c r="F14" s="86">
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
         <v>0.89144736842105299</v>
       </c>
-      <c r="G14" s="86">
-        <v>1</v>
-      </c>
-      <c r="H14" s="86">
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
         <v>0.91447368421052599</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="15">
         <v>0.91447368421052599</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="15">
         <v>0.80592105263157898</v>
       </c>
-      <c r="K14" s="86">
+      <c r="K14" s="16">
         <v>0.96052631578947401</v>
       </c>
     </row>
@@ -3330,28 +3318,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="16">
         <v>0.90460526315789502</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="16">
         <v>0.88815789473684204</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="15">
         <v>0.88486842105263197</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="16">
         <v>0.88815789473684204</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="15">
         <v>0.88157894736842102</v>
       </c>
-      <c r="I15" s="86">
+      <c r="I15" s="15">
         <v>0.88157894736842102</v>
       </c>
-      <c r="J15" s="86">
+      <c r="J15" s="15">
         <v>0.85526315789473695</v>
       </c>
-      <c r="K15" s="86">
+      <c r="K15" s="15">
         <v>0.88486842105263197</v>
       </c>
     </row>
@@ -3361,28 +3349,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="15">
         <v>0.88486842105263197</v>
       </c>
-      <c r="E16" s="86">
-        <v>1</v>
-      </c>
-      <c r="F16" s="86">
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
         <v>0.89473684210526305</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="16">
         <v>0.99671052631579005</v>
       </c>
-      <c r="H16" s="86">
+      <c r="H16" s="15">
         <v>0.88157894736842102</v>
       </c>
-      <c r="I16" s="86">
+      <c r="I16" s="15">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J16" s="86">
+      <c r="J16" s="15">
         <v>0.78947368421052599</v>
       </c>
-      <c r="K16" s="86">
+      <c r="K16" s="16">
         <v>0.96710526315789502</v>
       </c>
     </row>
@@ -3701,7 +3689,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,19 +3707,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3779,28 +3767,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>31</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>218</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>133</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>239</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <v>241</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="38">
         <v>195</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <v>9</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="37">
         <v>267</v>
       </c>
     </row>
@@ -3809,28 +3797,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>16</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>274</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>103</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>221</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>216</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <v>269</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>12</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="38">
         <v>217</v>
       </c>
     </row>
@@ -3842,28 +3830,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>42</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>216</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>154</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <v>217</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="38">
         <v>217</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="38">
         <v>281</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <v>32</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="37">
         <v>216</v>
       </c>
     </row>
@@ -3873,28 +3861,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>30</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>281</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>29</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <v>218</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>218</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <v>281</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>29</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="38">
         <v>216</v>
       </c>
     </row>
@@ -3908,28 +3896,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>185</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>164</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>188</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <v>216</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="38">
         <v>217</v>
       </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="I9" s="37">
+        <v>1</v>
+      </c>
+      <c r="J9" s="37">
         <v>184</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="38">
         <v>215</v>
       </c>
     </row>
@@ -3938,28 +3926,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>183</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>216</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>152</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <v>217</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>216</v>
       </c>
-      <c r="I10" s="38">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="I10" s="37">
+        <v>1</v>
+      </c>
+      <c r="J10" s="37">
         <v>158</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="38">
         <v>216</v>
       </c>
     </row>
@@ -3971,28 +3959,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>54</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>217</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>156</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>201</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="38">
         <v>215</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="37">
         <v>2</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="37">
         <v>157</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="38">
         <v>217</v>
       </c>
     </row>
@@ -4002,28 +3990,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>180</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>217</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>177</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>217</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <v>218</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <v>2</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <v>178</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="38">
         <v>217</v>
       </c>
     </row>
@@ -4037,28 +4025,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="80">
         <v>81</v>
       </c>
       <c r="E13" s="81">
         <v>75</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="58">
         <v>68</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="58">
         <v>67</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="58">
         <v>73</v>
       </c>
       <c r="I13" s="81">
         <v>76</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="58">
         <v>74</v>
       </c>
-      <c r="K13" s="81">
+      <c r="K13" s="82">
         <v>78</v>
       </c>
     </row>
@@ -4067,28 +4055,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="71">
         <v>69</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="38">
         <v>44</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="37">
         <v>74</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="38">
         <v>45</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="37">
         <v>72</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="37">
         <v>74</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="37">
         <v>57</v>
       </c>
-      <c r="K14" s="81">
+      <c r="K14" s="83">
         <v>47</v>
       </c>
     </row>
@@ -4100,28 +4088,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="71">
         <v>82</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="37">
         <v>67</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="37">
         <v>72</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="38">
         <v>78</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="38">
         <v>63</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="38">
         <v>71</v>
       </c>
-      <c r="J15" s="81">
+      <c r="J15" s="37">
         <v>76</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K15" s="84">
         <v>70</v>
       </c>
     </row>
@@ -4131,28 +4119,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="72">
         <v>76</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="85">
         <v>44</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="67">
         <v>79</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="85">
         <v>45</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="67">
         <v>68</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="67">
         <v>71</v>
       </c>
-      <c r="J16" s="81">
+      <c r="J16" s="67">
         <v>64</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="86">
         <v>44</v>
       </c>
     </row>
@@ -4166,28 +4154,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>258</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
         <v>169</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <v>180</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <v>177</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="38">
         <v>158</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="37">
         <v>71</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="37">
         <v>232</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="38">
         <v>281</v>
       </c>
     </row>
@@ -4196,28 +4184,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="38">
         <v>281</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>281</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>251</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <v>121</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <v>277</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <v>79</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="37">
         <v>206</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="38">
         <v>281</v>
       </c>
     </row>
@@ -4229,28 +4217,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>15</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>145</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>158</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="38">
         <v>217</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="38">
         <v>217</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="38">
         <v>89</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="37">
         <v>116</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="37">
         <v>217</v>
       </c>
     </row>
@@ -4260,28 +4248,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>13</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>243</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <v>213</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <v>226</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <v>217</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="37">
         <v>95</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <v>52</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="38">
         <v>243</v>
       </c>
     </row>
@@ -4471,7 +4459,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,19 +4477,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4549,28 +4537,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>17.100000000000001</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>100.1</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>46.8</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>151.4</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <v>178.6</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="38">
         <v>176.3</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <v>7.5</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="37">
         <v>95.6</v>
       </c>
     </row>
@@ -4579,28 +4567,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>16.7</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>156.80000000000001</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>33.1</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>152.1</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>164.9</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <v>173.8</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>7.6</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="38">
         <v>158.1</v>
       </c>
     </row>
@@ -4612,28 +4600,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>22.3</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>85.7</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>68.7</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <v>156.5</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="38">
         <v>158.80000000000001</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="38">
         <v>202.7</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <v>12.4</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="37">
         <v>135.5</v>
       </c>
     </row>
@@ -4643,28 +4631,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>20.399999999999999</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>132.5</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>47.4</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <v>204.5</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>136.4</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <v>168.1</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>15.6</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="38">
         <v>165.8</v>
       </c>
     </row>
@@ -4678,28 +4666,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>73.2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>46.8</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>124.9</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <v>160.4</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="38">
         <v>195.5</v>
       </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="I9" s="37">
+        <v>1</v>
+      </c>
+      <c r="J9" s="37">
         <v>73.2</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="38">
         <v>195.6</v>
       </c>
     </row>
@@ -4708,28 +4696,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>76.3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>129.5</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>51.6</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <v>160.30000000000001</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>215</v>
       </c>
-      <c r="I10" s="38">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="I10" s="37">
+        <v>1</v>
+      </c>
+      <c r="J10" s="37">
         <v>67</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="38">
         <v>180.7</v>
       </c>
     </row>
@@ -4741,28 +4729,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>60</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>112</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>64.7</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>142.4</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="38">
         <v>178</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="37">
         <v>2</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="37">
         <v>40.6</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="38">
         <v>117.4</v>
       </c>
     </row>
@@ -4772,28 +4760,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>67.900000000000006</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>134</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>66.099999999999994</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>149</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <v>174.7</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <v>2</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <v>62.2</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="38">
         <v>135.30000000000001</v>
       </c>
     </row>
@@ -4807,28 +4795,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="80">
         <v>65</v>
       </c>
       <c r="E13" s="81">
         <v>70.5</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="58">
         <v>67.2</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="58">
         <v>66.7</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="58">
         <v>70</v>
       </c>
       <c r="I13" s="81">
         <v>71.7</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="58">
         <v>59.7</v>
       </c>
-      <c r="K13" s="81">
+      <c r="K13" s="82">
         <v>67.7</v>
       </c>
     </row>
@@ -4837,28 +4825,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="71">
         <v>68.5</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="38">
         <v>44.9</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="37">
         <v>68.3</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="38">
         <v>45.9</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="37">
         <v>68.3</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="37">
         <v>64.8</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="37">
         <v>56.9</v>
       </c>
-      <c r="K14" s="81">
+      <c r="K14" s="83">
         <v>58.2</v>
       </c>
     </row>
@@ -4870,28 +4858,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="71">
         <v>68.2</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="37">
         <v>68.400000000000006</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="37">
         <v>62.3</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="38">
         <v>68.2</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="38">
         <v>65.400000000000006</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="38">
         <v>65.599999999999994</v>
       </c>
-      <c r="J15" s="81">
+      <c r="J15" s="37">
         <v>64.099999999999994</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K15" s="84">
         <v>64.400000000000006</v>
       </c>
     </row>
@@ -4901,28 +4889,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="72">
         <v>70.900000000000006</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="85">
         <v>44.8</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="67">
         <v>68.400000000000006</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="85">
         <v>44.9</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="67">
         <v>67.099999999999994</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="67">
         <v>67.5</v>
       </c>
-      <c r="J16" s="81">
+      <c r="J16" s="67">
         <v>48.2</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="86">
         <v>55.4</v>
       </c>
     </row>
@@ -4936,28 +4924,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>274.2</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
         <v>223.6</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <v>44.2</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <v>132.69999999999999</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="38">
         <v>191.5</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="37">
         <v>45.1</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="37">
         <v>68.400000000000006</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="38">
         <v>227.6</v>
       </c>
     </row>
@@ -4966,28 +4954,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="38">
         <v>275.10000000000002</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>234.1</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>79.7</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <v>134.1</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <v>212.2</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <v>55.1</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="37">
         <v>46.9</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="38">
         <v>204.7</v>
       </c>
     </row>
@@ -4999,28 +4987,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>12.8</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>125.3</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>54.9</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="38">
         <v>95.2</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="38">
         <v>106.7</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="38">
         <v>61.5</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="37">
         <v>37.200000000000003</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="37">
         <v>81.5</v>
       </c>
     </row>
@@ -5030,28 +5018,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>12.3</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>152</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <v>71</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <v>160.4</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <v>171.1</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="37">
         <v>43.6</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <v>27.7</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="38">
         <v>140.80000000000001</v>
       </c>
     </row>
@@ -5241,7 +5229,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5259,19 +5247,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5319,58 +5307,42 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
-        <v>1</v>
-      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>2</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>5</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>2</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>7</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>7</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <v>5</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>5</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="38">
         <v>5</v>
       </c>
     </row>
@@ -5382,30 +5354,14 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38">
-        <v>1</v>
-      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -5413,28 +5369,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>3</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>3</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>2</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <v>7</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>6</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <v>2</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>7</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="38">
         <v>7</v>
       </c>
     </row>
@@ -5448,58 +5404,42 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="39">
-        <v>1</v>
-      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>3</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>2</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <v>5</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>7</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <v>5</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <v>3</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="38">
         <v>2</v>
       </c>
     </row>
@@ -5511,30 +5451,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
-        <v>1</v>
-      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5542,28 +5466,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>2</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>5</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>2</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>4</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <v>7</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <v>9</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <v>2</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="38">
         <v>5</v>
       </c>
     </row>
@@ -5577,58 +5501,42 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="81">
-        <v>1</v>
-      </c>
-      <c r="E13" s="81">
-        <v>1</v>
-      </c>
-      <c r="F13" s="81">
-        <v>1</v>
-      </c>
-      <c r="G13" s="81">
-        <v>1</v>
-      </c>
-      <c r="H13" s="81">
-        <v>1</v>
-      </c>
-      <c r="I13" s="81">
-        <v>1</v>
-      </c>
-      <c r="J13" s="81">
-        <v>1</v>
-      </c>
-      <c r="K13" s="81">
-        <v>1</v>
-      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="82"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="71">
         <v>2</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="38">
         <v>3</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="37">
         <v>2</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="38">
         <v>3</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="37">
         <v>9</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="37">
         <v>10</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="37">
         <v>2</v>
       </c>
-      <c r="K14" s="81">
+      <c r="K14" s="83">
         <v>7</v>
       </c>
     </row>
@@ -5640,30 +5548,14 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="81">
-        <v>1</v>
-      </c>
-      <c r="E15" s="81">
-        <v>1</v>
-      </c>
-      <c r="F15" s="81">
-        <v>1</v>
-      </c>
-      <c r="G15" s="81">
-        <v>1</v>
-      </c>
-      <c r="H15" s="81">
-        <v>1</v>
-      </c>
-      <c r="I15" s="81">
-        <v>1</v>
-      </c>
-      <c r="J15" s="81">
-        <v>1</v>
-      </c>
-      <c r="K15" s="81">
-        <v>1</v>
-      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5671,28 +5563,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="72">
         <v>2</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="85">
         <v>3</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="67">
         <v>2</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="85">
         <v>3</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="67">
         <v>6</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="67">
         <v>10</v>
       </c>
-      <c r="J16" s="81">
+      <c r="J16" s="67">
         <v>2</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="86">
         <v>3</v>
       </c>
     </row>
@@ -5706,58 +5598,42 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38">
-        <v>1</v>
-      </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="38">
-        <v>1</v>
-      </c>
-      <c r="G17" s="39">
-        <v>1</v>
-      </c>
-      <c r="H17" s="39">
-        <v>1</v>
-      </c>
-      <c r="I17" s="38">
-        <v>1</v>
-      </c>
-      <c r="J17" s="38">
-        <v>1</v>
-      </c>
-      <c r="K17" s="39">
-        <v>1</v>
-      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="38">
         <v>3</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>2</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>4</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <v>3</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <v>4</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <v>2</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="37">
         <v>2</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="38">
         <v>5</v>
       </c>
     </row>
@@ -5769,30 +5645,14 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38">
-        <v>1</v>
-      </c>
-      <c r="E19" s="38">
-        <v>1</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="39">
-        <v>1</v>
-      </c>
-      <c r="H19" s="39">
-        <v>1</v>
-      </c>
-      <c r="I19" s="39">
-        <v>1</v>
-      </c>
-      <c r="J19" s="38">
-        <v>1</v>
-      </c>
-      <c r="K19" s="38">
-        <v>1</v>
-      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5800,28 +5660,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>4</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>5</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <v>2</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <v>6</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <v>7</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="37">
         <v>8</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <v>3</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="38">
         <v>7</v>
       </c>
     </row>
@@ -6011,7 +5871,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6029,19 +5889,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6089,58 +5949,42 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
-        <v>1</v>
-      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>3.9</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>3</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>5.4</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>4.8</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <v>3.8</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="38">
         <v>4.5</v>
       </c>
     </row>
@@ -6152,30 +5996,14 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38">
-        <v>1</v>
-      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -6183,28 +6011,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>3.6</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>4.5</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <v>3.8</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <v>3.1</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>3.8</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="38">
         <v>4.2</v>
       </c>
     </row>
@@ -6218,58 +6046,42 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="39">
-        <v>1</v>
-      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>4.3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>3.6</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>3.4</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>5</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <v>6.4</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <v>3.2</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="38">
         <v>3.8</v>
       </c>
     </row>
@@ -6281,30 +6093,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
-        <v>1</v>
-      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -6312,28 +6108,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>3.6</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>3.8</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>3.6</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>3.2</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <v>5.3</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <v>5.9</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <v>3.5</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="38">
         <v>4.2</v>
       </c>
     </row>
@@ -6347,58 +6143,42 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="81">
-        <v>1</v>
-      </c>
-      <c r="E13" s="81">
-        <v>1</v>
-      </c>
-      <c r="F13" s="81">
-        <v>1</v>
-      </c>
-      <c r="G13" s="81">
-        <v>1</v>
-      </c>
-      <c r="H13" s="81">
-        <v>1</v>
-      </c>
-      <c r="I13" s="81">
-        <v>1</v>
-      </c>
-      <c r="J13" s="81">
-        <v>1</v>
-      </c>
-      <c r="K13" s="81">
-        <v>1</v>
-      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="82"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="71">
         <v>2.1</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="37">
         <v>2.6</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="37">
         <v>6.5</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="37">
         <v>7.6</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="37">
         <v>4.2</v>
       </c>
-      <c r="K14" s="81">
+      <c r="K14" s="83">
         <v>6.9</v>
       </c>
     </row>
@@ -6410,30 +6190,14 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="81">
-        <v>1</v>
-      </c>
-      <c r="E15" s="81">
-        <v>1</v>
-      </c>
-      <c r="F15" s="81">
-        <v>1</v>
-      </c>
-      <c r="G15" s="81">
-        <v>1</v>
-      </c>
-      <c r="H15" s="81">
-        <v>1</v>
-      </c>
-      <c r="I15" s="81">
-        <v>1</v>
-      </c>
-      <c r="J15" s="81">
-        <v>1</v>
-      </c>
-      <c r="K15" s="81">
-        <v>1</v>
-      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -6441,28 +6205,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="72">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="85">
         <v>4</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="67">
         <v>2.6</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="85">
         <v>3.8</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="67">
         <v>6.4</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="67">
         <v>8.4</v>
       </c>
-      <c r="J16" s="81">
+      <c r="J16" s="67">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="86">
         <v>5.9</v>
       </c>
     </row>
@@ -6476,58 +6240,42 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38">
-        <v>1</v>
-      </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="38">
-        <v>1</v>
-      </c>
-      <c r="G17" s="39">
-        <v>1</v>
-      </c>
-      <c r="H17" s="39">
-        <v>1</v>
-      </c>
-      <c r="I17" s="38">
-        <v>1</v>
-      </c>
-      <c r="J17" s="38">
-        <v>1</v>
-      </c>
-      <c r="K17" s="39">
-        <v>1</v>
-      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="38">
         <v>3.4</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>4</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <v>4.2</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <v>3.8</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="37">
         <v>4.2</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="38">
         <v>3.5</v>
       </c>
     </row>
@@ -6539,30 +6287,14 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38">
-        <v>1</v>
-      </c>
-      <c r="E19" s="38">
-        <v>1</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="39">
-        <v>1</v>
-      </c>
-      <c r="H19" s="39">
-        <v>1</v>
-      </c>
-      <c r="I19" s="39">
-        <v>1</v>
-      </c>
-      <c r="J19" s="38">
-        <v>1</v>
-      </c>
-      <c r="K19" s="38">
-        <v>1</v>
-      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6570,28 +6302,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>3.9</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>4.8</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <v>3.7</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <v>5.3</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="37">
         <v>5.2</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <v>3.8</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="38">
         <v>5.2</v>
       </c>
     </row>
@@ -6781,7 +6513,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6804,56 +6536,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="36" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="77" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="77" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="79"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -6862,46 +6594,46 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="47" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6912,88 +6644,88 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="43">
-        <v>1</v>
-      </c>
-      <c r="D5" s="70">
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="69">
         <v>6.25E-2</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="58">
         <v>0.5</v>
       </c>
-      <c r="F5" s="59">
-        <v>1</v>
-      </c>
-      <c r="G5" s="59">
-        <v>1</v>
-      </c>
-      <c r="H5" s="59">
+      <c r="F5" s="58">
+        <v>1</v>
+      </c>
+      <c r="G5" s="58">
+        <v>1</v>
+      </c>
+      <c r="H5" s="58">
         <v>3</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="59">
         <v>128</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="58">
         <v>2</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="58">
         <v>3</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="58">
         <v>4</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="N5" s="58">
+      <c r="N5" s="57">
         <v>0.05</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="58">
         <v>2</v>
       </c>
-      <c r="P5" s="74">
+      <c r="P5" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="71">
         <v>4</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>2</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="51">
         <v>0.25</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <v>3</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="51">
         <v>0.25</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="37">
         <v>2.6</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="53">
         <v>3.90625E-3</v>
       </c>
       <c r="N6" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="37">
         <v>0.5</v>
       </c>
       <c r="P6" s="26">
@@ -7005,92 +6737,92 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="44">
-        <v>1</v>
-      </c>
-      <c r="D7" s="72">
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71">
         <v>8</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>0.5</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>0.5</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>8</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="37">
         <v>3</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="51">
         <v>0.25</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="37">
         <v>0.4</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="50">
         <v>16</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="53">
         <v>3.90625E-3</v>
       </c>
       <c r="N7" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="63">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="71">
         <v>2</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>2</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>4</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>2</v>
       </c>
       <c r="I8" s="15">
         <v>0.125</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="37">
         <v>2</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="50">
         <v>32</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="53">
         <v>1.5625E-2</v>
       </c>
       <c r="N8" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="37">
         <v>0.5</v>
       </c>
-      <c r="P8" s="64">
+      <c r="P8" s="63">
         <v>0.25</v>
       </c>
     </row>
@@ -7101,91 +6833,91 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="43">
-        <v>1</v>
-      </c>
-      <c r="D9" s="61">
+      <c r="C9" s="42">
+        <v>1</v>
+      </c>
+      <c r="D9" s="60">
         <v>6.25E-2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>0.5</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>4</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="H9" s="38">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="37">
         <v>8</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="37">
         <v>2.4</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="50">
         <v>1024</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="53">
         <v>7.8125E-3</v>
       </c>
       <c r="N9" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="62">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="60">
         <v>6.25E-2</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="51">
         <v>2</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <v>2</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>0.6</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="37">
         <v>2.8</v>
       </c>
-      <c r="L10" s="38">
-        <v>1</v>
-      </c>
-      <c r="M10" s="54">
+      <c r="L10" s="37">
+        <v>1</v>
+      </c>
+      <c r="M10" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="37">
         <v>0.1</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="37">
         <v>8</v>
       </c>
-      <c r="P10" s="64">
+      <c r="P10" s="63">
         <v>0.25</v>
       </c>
     </row>
@@ -7194,59 +6926,59 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="44">
-        <v>1</v>
-      </c>
-      <c r="D11" s="72">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="C11" s="43">
+        <v>1</v>
+      </c>
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37">
         <v>0.5</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="52">
         <v>6.25E-2</v>
       </c>
       <c r="G11" s="15">
         <v>0.125</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="37">
         <v>0.6</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="50">
         <v>32</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="37">
         <v>2</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="37">
         <v>2.6</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="50">
         <v>256</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="52">
         <v>6.25E-2</v>
       </c>
       <c r="N11" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="P11" s="56">
+      <c r="P11" s="55">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="71">
         <v>4</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="52">
         <v>6.25E-2</v>
       </c>
       <c r="F12" s="15">
@@ -7255,31 +6987,31 @@
       <c r="G12" s="15">
         <v>0.125</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <v>0.8</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="K12" s="38">
-        <v>1</v>
-      </c>
-      <c r="L12" s="51">
+      <c r="K12" s="37">
+        <v>1</v>
+      </c>
+      <c r="L12" s="50">
         <v>256</v>
       </c>
-      <c r="M12" s="54">
+      <c r="M12" s="53">
         <v>3.90625E-3</v>
       </c>
       <c r="N12" s="15">
         <v>0.01</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="P12" s="63">
+      <c r="P12" s="62">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -7290,43 +7022,43 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="42">
         <v>1</v>
       </c>
       <c r="D13" s="14">
         <v>1.953125E-3</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>2</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>2</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <v>8</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <v>2.4</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="37">
         <v>0.5</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="37">
         <v>6.25E-2</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="37">
         <v>3</v>
       </c>
       <c r="L13" s="15">
         <v>1.953125E-3</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="52">
         <v>3.125E-2</v>
       </c>
       <c r="N13" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="P13" s="26">
@@ -7335,46 +7067,46 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="60">
         <v>3.90625E-3</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="52">
         <v>1.5625E-2</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <v>64</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="52">
         <v>3.90625E-3</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="37">
         <v>1</v>
       </c>
       <c r="I14" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="52">
         <v>1.5625E-2</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="37">
         <v>0.8</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="51">
         <v>1.5625E-2</v>
       </c>
       <c r="M14" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="N14" s="53">
+      <c r="N14" s="52">
         <v>3.90625E-3</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="37">
         <v>8</v>
       </c>
-      <c r="P14" s="64">
+      <c r="P14" s="63">
         <v>0.25</v>
       </c>
     </row>
@@ -7383,89 +7115,89 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="44">
-        <v>1</v>
-      </c>
-      <c r="D15" s="62">
+      <c r="C15" s="43">
+        <v>1</v>
+      </c>
+      <c r="D15" s="61">
         <v>1024</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>8</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="51">
         <v>1.5625E-2</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="51">
         <v>0.5</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="51">
         <v>2.4</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="37">
         <v>2</v>
       </c>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="J15" s="37">
+        <v>1</v>
+      </c>
+      <c r="K15" s="37">
         <v>3</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="37">
         <v>4</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="52">
         <v>0.125</v>
       </c>
-      <c r="N15" s="53">
+      <c r="N15" s="52">
         <v>3.90625E-3</v>
       </c>
-      <c r="O15" s="51">
+      <c r="O15" s="50">
         <v>1024</v>
       </c>
-      <c r="P15" s="65">
+      <c r="P15" s="64">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="71">
         <v>16</v>
       </c>
       <c r="E16" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="51">
         <v>1.5625E-2</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="37">
         <v>0.8</v>
       </c>
       <c r="I16" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="37">
         <v>0.2</v>
       </c>
-      <c r="L16" s="53">
+      <c r="L16" s="52">
         <v>3.90625E-3</v>
       </c>
-      <c r="M16" s="54">
+      <c r="M16" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="N16" s="53">
+      <c r="N16" s="52">
         <v>-9.765625E-4</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="37">
         <v>8</v>
       </c>
       <c r="P16" s="26">
@@ -7479,88 +7211,88 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="44">
-        <v>1</v>
-      </c>
-      <c r="D17" s="61">
+      <c r="C17" s="43">
+        <v>1</v>
+      </c>
+      <c r="D17" s="60">
         <v>6.25E-2</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>4</v>
       </c>
       <c r="F17" s="15">
         <v>0.125</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>4</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="37">
         <v>2.4</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <v>32</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="37">
         <v>0.5</v>
       </c>
-      <c r="K17" s="38">
-        <v>1</v>
-      </c>
-      <c r="L17" s="51">
+      <c r="K17" s="37">
+        <v>1</v>
+      </c>
+      <c r="L17" s="50">
         <v>512</v>
       </c>
-      <c r="M17" s="54">
+      <c r="M17" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="37">
         <v>0.1</v>
       </c>
-      <c r="O17" s="38">
-        <v>1</v>
-      </c>
-      <c r="P17" s="65">
+      <c r="O17" s="37">
+        <v>1</v>
+      </c>
+      <c r="P17" s="64">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="60">
         <v>6.25E-2</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>2</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>2</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="37">
         <v>3</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <v>8</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="37">
         <v>2</v>
       </c>
-      <c r="L18" s="51">
+      <c r="L18" s="50">
         <v>1024</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="37">
         <v>0.1</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="37">
         <v>4</v>
       </c>
       <c r="P18" s="26">
@@ -7572,92 +7304,92 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="44">
-        <v>1</v>
-      </c>
-      <c r="D19" s="61">
+      <c r="C19" s="43">
+        <v>1</v>
+      </c>
+      <c r="D19" s="60">
         <v>6.25E-2</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>0.5</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>2</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>8</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="37">
         <v>2.6</v>
       </c>
       <c r="I19" s="15">
         <v>0.125</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="37">
         <v>0.4</v>
       </c>
-      <c r="L19" s="51">
+      <c r="L19" s="50">
         <v>256</v>
       </c>
-      <c r="M19" s="54">
+      <c r="M19" s="53">
         <v>3.125E-2</v>
       </c>
       <c r="N19" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O19" s="38">
-        <v>1</v>
-      </c>
-      <c r="P19" s="64">
+      <c r="O19" s="37">
+        <v>1</v>
+      </c>
+      <c r="P19" s="63">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="72">
         <v>8</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="56">
         <v>1.5625E-2</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="67">
         <v>4</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="66">
         <v>0.25</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="67">
         <v>2.8</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="56">
         <v>3.125E-2</v>
       </c>
-      <c r="J20" s="57">
+      <c r="J20" s="56">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="68">
+      <c r="K20" s="67">
         <v>0.4</v>
       </c>
-      <c r="L20" s="69">
+      <c r="L20" s="68">
         <v>256</v>
       </c>
-      <c r="M20" s="57">
+      <c r="M20" s="56">
         <v>3.125E-2</v>
       </c>
       <c r="N20" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O20" s="66">
+      <c r="O20" s="65">
         <v>6.25E-2</v>
       </c>
-      <c r="P20" s="71">
+      <c r="P20" s="70">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -7919,7 +7651,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7931,69 +7663,68 @@
     <col min="5" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="77" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="77" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77" t="s">
+      <c r="I3" s="77"/>
+      <c r="J3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="77" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="77" t="s">
+      <c r="M3" s="77"/>
+      <c r="N3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="77" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="77" t="s">
+      <c r="Q3" s="77"/>
+      <c r="R3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="79"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -8005,52 +7736,52 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8064,108 +7795,76 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>1.953125E-3</v>
       </c>
-      <c r="E5" s="49">
-        <v>1024.001</v>
-      </c>
-      <c r="F5" s="50">
+      <c r="E5" s="48"/>
+      <c r="F5" s="49">
         <v>1.5625E-2</v>
       </c>
-      <c r="G5" s="49">
-        <v>1024.001</v>
-      </c>
-      <c r="H5" s="50">
+      <c r="G5" s="48"/>
+      <c r="H5" s="49">
         <v>7.8125E-3</v>
       </c>
-      <c r="I5" s="49">
-        <v>1024.001</v>
-      </c>
+      <c r="I5" s="48"/>
       <c r="J5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="K5" s="49">
-        <v>1024.001</v>
-      </c>
+      <c r="K5" s="48"/>
       <c r="L5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="M5" s="49">
-        <v>1024.001</v>
-      </c>
+      <c r="M5" s="48"/>
       <c r="N5" s="12">
         <v>-0.125</v>
       </c>
-      <c r="O5" s="49">
-        <v>1024.001</v>
-      </c>
-      <c r="P5" s="50">
+      <c r="O5" s="48"/>
+      <c r="P5" s="49">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q5" s="49">
-        <v>1024.001</v>
-      </c>
-      <c r="R5" s="50">
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49">
         <v>1.953125E-3</v>
       </c>
-      <c r="S5" s="49">
-        <v>1024.001</v>
-      </c>
+      <c r="S5" s="48"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="52">
         <v>3.90625E-3</v>
       </c>
-      <c r="E6" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="F6" s="38">
-        <v>1</v>
-      </c>
-      <c r="G6" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="H6" s="52">
+      <c r="E6" s="50"/>
+      <c r="F6" s="37">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51">
         <v>0.25</v>
       </c>
-      <c r="I6" s="51">
-        <v>1024.001</v>
-      </c>
+      <c r="I6" s="50"/>
       <c r="J6" s="15">
         <v>0.125</v>
       </c>
-      <c r="K6" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="L6" s="52">
+      <c r="K6" s="50"/>
+      <c r="L6" s="51">
         <v>0.25</v>
       </c>
-      <c r="M6" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="N6" s="51">
+      <c r="M6" s="50"/>
+      <c r="N6" s="50">
         <v>-8</v>
       </c>
-      <c r="O6" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="P6" s="53">
+      <c r="O6" s="50"/>
+      <c r="P6" s="52">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q6" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="R6" s="38">
-        <v>1</v>
-      </c>
-      <c r="S6" s="51">
-        <v>1024.001</v>
-      </c>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="37">
+        <v>1</v>
+      </c>
+      <c r="S6" s="50"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -8175,54 +7874,38 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="52">
         <v>1.953125E-3</v>
       </c>
-      <c r="E7" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="F7" s="53">
+      <c r="E7" s="50"/>
+      <c r="F7" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="G7" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="H7" s="53">
+      <c r="G7" s="50"/>
+      <c r="H7" s="52">
         <v>7.8125E-3</v>
       </c>
-      <c r="I7" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="J7" s="52">
+      <c r="I7" s="50"/>
+      <c r="J7" s="51">
         <v>0.25</v>
       </c>
-      <c r="K7" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="L7" s="38">
-        <v>1</v>
-      </c>
-      <c r="M7" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="N7" s="53">
+      <c r="K7" s="50"/>
+      <c r="L7" s="37">
+        <v>1</v>
+      </c>
+      <c r="M7" s="50"/>
+      <c r="N7" s="52">
         <v>-1.5625E-2</v>
       </c>
-      <c r="O7" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="P7" s="53">
+      <c r="O7" s="50"/>
+      <c r="P7" s="52">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q7" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="R7" s="52">
+      <c r="Q7" s="50"/>
+      <c r="R7" s="51">
         <v>0.25</v>
       </c>
-      <c r="S7" s="51">
-        <v>1024.001</v>
-      </c>
+      <c r="S7" s="50"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -8230,54 +7913,38 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="52">
         <v>3.90625E-3</v>
       </c>
-      <c r="E8" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="F8" s="52">
+      <c r="E8" s="50"/>
+      <c r="F8" s="51">
         <v>0.25</v>
       </c>
-      <c r="G8" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="H8" s="51">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50">
         <v>64</v>
       </c>
-      <c r="I8" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="J8" s="38">
+      <c r="I8" s="50"/>
+      <c r="J8" s="37">
         <v>0.5</v>
       </c>
-      <c r="K8" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="L8" s="38">
+      <c r="K8" s="50"/>
+      <c r="L8" s="37">
         <v>0.5</v>
       </c>
-      <c r="M8" s="51">
-        <v>1024.001</v>
-      </c>
+      <c r="M8" s="50"/>
       <c r="N8" s="15">
         <v>-0.125</v>
       </c>
-      <c r="O8" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="P8" s="53">
+      <c r="O8" s="50"/>
+      <c r="P8" s="52">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q8" s="51">
-        <v>1024.001</v>
-      </c>
-      <c r="R8" s="38">
-        <v>1</v>
-      </c>
-      <c r="S8" s="51">
-        <v>1024.001</v>
-      </c>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="37">
+        <v>1</v>
+      </c>
+      <c r="S8" s="50"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -8289,108 +7956,76 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="51">
         <v>0.99</v>
       </c>
-      <c r="E9" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="F9" s="38">
+      <c r="E9" s="15"/>
+      <c r="F9" s="37">
         <v>0.5</v>
       </c>
-      <c r="G9" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="H9" s="52">
+      <c r="G9" s="15"/>
+      <c r="H9" s="51">
         <v>0.99</v>
       </c>
-      <c r="I9" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J9" s="52">
+      <c r="I9" s="15"/>
+      <c r="J9" s="51">
         <v>0.99</v>
       </c>
-      <c r="K9" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="L9" s="38">
+      <c r="K9" s="15"/>
+      <c r="L9" s="37">
         <v>0.3</v>
       </c>
-      <c r="M9" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N9" s="38">
+      <c r="M9" s="15"/>
+      <c r="N9" s="37">
         <v>0.4</v>
       </c>
-      <c r="O9" s="38">
-        <v>1</v>
-      </c>
-      <c r="P9" s="52">
+      <c r="O9" s="37"/>
+      <c r="P9" s="51">
         <v>0.99</v>
       </c>
-      <c r="Q9" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="R9" s="38">
+      <c r="Q9" s="15"/>
+      <c r="R9" s="37">
         <v>0.1</v>
       </c>
-      <c r="S9" s="15">
-        <v>0.99099999999999999</v>
-      </c>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="51">
         <v>0.99</v>
       </c>
-      <c r="E10" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="F10" s="38">
+      <c r="E10" s="15"/>
+      <c r="F10" s="37">
         <v>0.1</v>
       </c>
-      <c r="G10" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="H10" s="52">
+      <c r="G10" s="15"/>
+      <c r="H10" s="51">
         <v>0.99</v>
       </c>
-      <c r="I10" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="I10" s="15"/>
+      <c r="J10" s="37">
         <v>0.3</v>
       </c>
-      <c r="K10" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="L10" s="52">
+      <c r="K10" s="15"/>
+      <c r="L10" s="51">
         <v>0.01</v>
       </c>
-      <c r="M10" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N10" s="52">
+      <c r="M10" s="15"/>
+      <c r="N10" s="51">
         <v>0.99</v>
       </c>
-      <c r="O10" s="38">
-        <v>1</v>
-      </c>
-      <c r="P10" s="52">
+      <c r="O10" s="37"/>
+      <c r="P10" s="51">
         <v>0.99</v>
       </c>
-      <c r="Q10" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="R10" s="52">
+      <c r="Q10" s="15"/>
+      <c r="R10" s="51">
         <v>0.01</v>
       </c>
-      <c r="S10" s="15">
-        <v>0.99099999999999999</v>
-      </c>
+      <c r="S10" s="15"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -8400,54 +8035,38 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="51">
         <v>0.9</v>
       </c>
-      <c r="E11" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="F11" s="52">
+      <c r="E11" s="15"/>
+      <c r="F11" s="51">
         <v>0.9</v>
       </c>
-      <c r="G11" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="H11" s="52">
+      <c r="G11" s="15"/>
+      <c r="H11" s="51">
         <v>0.99</v>
       </c>
-      <c r="I11" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J11" s="52">
+      <c r="I11" s="15"/>
+      <c r="J11" s="51">
         <v>0.99</v>
       </c>
-      <c r="K11" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="L11" s="52">
+      <c r="K11" s="15"/>
+      <c r="L11" s="51">
         <v>0.99</v>
       </c>
-      <c r="M11" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N11" s="38">
+      <c r="M11" s="15"/>
+      <c r="N11" s="37">
         <v>0.7</v>
       </c>
-      <c r="O11" s="38">
-        <v>1</v>
-      </c>
-      <c r="P11" s="52">
+      <c r="O11" s="37"/>
+      <c r="P11" s="51">
         <v>0.99</v>
       </c>
-      <c r="Q11" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="R11" s="38">
+      <c r="Q11" s="15"/>
+      <c r="R11" s="37">
         <v>0.1</v>
       </c>
-      <c r="S11" s="15">
-        <v>0.99099999999999999</v>
-      </c>
+      <c r="S11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -8455,54 +8074,38 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="51">
         <v>0.99</v>
       </c>
-      <c r="E12" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="F12" s="52">
+      <c r="E12" s="15"/>
+      <c r="F12" s="51">
         <v>0.01</v>
       </c>
-      <c r="G12" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="H12" s="52">
+      <c r="G12" s="15"/>
+      <c r="H12" s="51">
         <v>0.99</v>
       </c>
-      <c r="I12" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J12" s="38">
+      <c r="I12" s="15"/>
+      <c r="J12" s="37">
         <v>0.1</v>
       </c>
-      <c r="K12" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="L12" s="52">
+      <c r="K12" s="15"/>
+      <c r="L12" s="51">
         <v>0.01</v>
       </c>
-      <c r="M12" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N12" s="38">
+      <c r="M12" s="15"/>
+      <c r="N12" s="37">
         <v>0.8</v>
       </c>
-      <c r="O12" s="38">
-        <v>1</v>
-      </c>
-      <c r="P12" s="52">
+      <c r="O12" s="37"/>
+      <c r="P12" s="51">
         <v>0.99</v>
       </c>
-      <c r="Q12" s="15">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="R12" s="38">
+      <c r="Q12" s="15"/>
+      <c r="R12" s="37">
         <v>0.1</v>
       </c>
-      <c r="S12" s="15">
-        <v>0.99099999999999999</v>
-      </c>
+      <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -8514,44 +8117,108 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="38"/>
+      <c r="D13" s="15">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G13" s="52">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="H13" s="15">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I13" s="37">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="J13" s="15">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K13" s="37">
+        <v>8.0009765625</v>
+      </c>
+      <c r="L13" s="15">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M13" s="37">
+        <v>4.0009765625</v>
+      </c>
+      <c r="N13" s="51">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O13" s="51">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="P13" s="52">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="R13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="51">
+        <v>1.66015625E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="38"/>
+      <c r="D14" s="52">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E14" s="15">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="52">
+        <v>0.5009765625</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I14" s="15">
+        <v>2.0009765625</v>
+      </c>
+      <c r="J14" s="52">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K14" s="51">
+        <v>32.0009765625</v>
+      </c>
+      <c r="L14" s="52">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M14" s="37">
+        <v>16.0009765625</v>
+      </c>
+      <c r="N14" s="51">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O14" s="37">
+        <v>128.0009765625</v>
+      </c>
+      <c r="P14" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q14" s="52">
+        <v>0.5009765625</v>
+      </c>
+      <c r="R14" s="15">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S14" s="50">
+        <v>64.0009765625</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -8561,22 +8228,54 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="38"/>
+      <c r="D15" s="52">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E15" s="37">
+        <v>16.0009765625</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G15" s="37">
+        <v>8.0009765625</v>
+      </c>
+      <c r="H15" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="I15" s="51">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="J15" s="15">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K15" s="51">
+        <v>0.2509765625</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="M15" s="37">
+        <v>1.0009765625</v>
+      </c>
+      <c r="N15" s="15">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="O15" s="51">
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="P15" s="15">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q15" s="50">
+        <v>1.0009765625</v>
+      </c>
+      <c r="R15" s="52">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S15" s="15">
+        <v>2.9296875E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -8584,22 +8283,54 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="38"/>
+      <c r="D16" s="15">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="F16" s="51">
+        <v>1</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0.1259765625</v>
+      </c>
+      <c r="H16" s="15">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I16" s="50">
+        <v>8.0009765625</v>
+      </c>
+      <c r="J16" s="52">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K16" s="50">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="L16" s="15">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="M16" s="37">
+        <v>4.0009765625</v>
+      </c>
+      <c r="N16" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="O16" s="37">
+        <v>0.1259765625</v>
+      </c>
+      <c r="P16" s="15">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q16" s="50">
+        <v>8.0009765625</v>
+      </c>
+      <c r="R16" s="15">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="S16" s="37">
+        <v>2.0009765625</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -8611,52 +8342,52 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="50">
         <v>16</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <v>1024.0009765625</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <v>16</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="50">
         <v>256.0009765625</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="52">
         <v>7.8125E-3</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <v>64.0009765625</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="52">
         <v>1.5625E-2</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="52">
         <v>6.34765625E-2</v>
       </c>
       <c r="L17" s="15">
         <v>0.125</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="37">
         <v>0.5009765625</v>
       </c>
-      <c r="N17" s="51">
+      <c r="N17" s="50">
         <v>-128</v>
       </c>
       <c r="O17" s="15">
         <v>-9.765625E-4</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="52">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="50">
         <v>8.0009765625</v>
       </c>
-      <c r="R17" s="51">
+      <c r="R17" s="50">
         <v>8</v>
       </c>
-      <c r="S17" s="51">
+      <c r="S17" s="50">
         <v>128.0009765625</v>
       </c>
     </row>
@@ -8665,37 +8396,37 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="50">
         <v>16</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="50">
         <v>128.0009765625</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="52">
         <v>1.5625E-2</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>0.5009765625</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="52">
         <v>7.8125E-3</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="50">
         <v>2.0009765625</v>
       </c>
-      <c r="J18" s="51">
-        <v>1</v>
-      </c>
-      <c r="K18" s="51">
+      <c r="J18" s="50">
+        <v>1</v>
+      </c>
+      <c r="K18" s="50">
         <v>256.0009765625</v>
       </c>
-      <c r="L18" s="53">
+      <c r="L18" s="52">
         <v>1.953125E-3</v>
       </c>
       <c r="M18" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N18" s="52">
         <v>-64</v>
       </c>
       <c r="O18" s="15">
@@ -8704,13 +8435,13 @@
       <c r="P18" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="50">
         <v>32.0009765625</v>
       </c>
-      <c r="R18" s="53">
+      <c r="R18" s="52">
         <v>1.953125E-3</v>
       </c>
-      <c r="S18" s="51">
+      <c r="S18" s="50">
         <v>16.0009765625</v>
       </c>
     </row>
@@ -8722,49 +8453,49 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="50">
         <v>32.0009765625</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="51">
         <v>0.25</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="50">
         <v>64.0009765625</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="52">
         <v>1.953125E-3</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="52">
         <v>3.22265625E-2</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="52">
         <v>3.125E-2</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="50">
         <v>32.0009765625</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="52">
         <v>1.5625E-2</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="50">
         <v>16.0009765625</v>
       </c>
-      <c r="N19" s="52">
+      <c r="N19" s="51">
         <v>-0.25</v>
       </c>
-      <c r="O19" s="51">
+      <c r="O19" s="50">
         <v>32.0009765625</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="52">
         <v>7.8125E-3</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="50">
         <v>8.0009765625</v>
       </c>
-      <c r="R19" s="53">
+      <c r="R19" s="52">
         <v>3.125E-2</v>
       </c>
       <c r="S19" s="15">
@@ -8777,40 +8508,40 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="52">
         <v>1.5625E-2</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="50">
         <v>32.0009765625</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="52">
         <v>1.953125E-3</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="52">
         <v>4.8828125E-3</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="52">
         <v>7.8125E-3</v>
       </c>
       <c r="I20" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="52">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="52">
         <v>6.34765625E-2</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="52">
         <v>1.5625E-2</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="50">
         <v>1.0009765625</v>
       </c>
-      <c r="N20" s="51">
+      <c r="N20" s="50">
         <v>4</v>
       </c>
-      <c r="O20" s="51">
+      <c r="O20" s="50">
         <v>8.0009765625</v>
       </c>
       <c r="P20" s="15">
@@ -8819,7 +8550,7 @@
       <c r="Q20" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="R20" s="53">
+      <c r="R20" s="52">
         <v>1.953125E-3</v>
       </c>
       <c r="S20" s="15">
